--- a/biology/Zoologie/Aleuron/Aleuron.xlsx
+++ b/biology/Zoologie/Aleuron/Aleuron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aleuron regroupe des insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, et de la tribu des Dilophonotini .
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale et au nord de l'Amérique du Sud.
 </t>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Aleuron a été décrit par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1870[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Aleuron a été décrit par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1870.
 L'espèce type pour le genre est Aleuron chloroptera (Perty 1833).</t>
         </is>
       </c>
@@ -573,13 +589,49 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tylognathus R. Felder, 1874[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tylognathus R. Felder, 1874
 Callenyo Grote, 1874
-Gonenyo Butler, 1874[3]
-Liste des espèces
-Aleuron carinata - (Walker 1856)
+Gonenyo Butler, 1874</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aleuron</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aleuron</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aleuron carinata - (Walker 1856)
 Aleuron chloroptera - (Perty 1833)
 Aleuron cymographum - Rothschild &amp; Jordan 1903
 Aleuron iphis - (Walker 1856)
